--- a/Outputs/Gas Transfer Velocity/Riveros-Iregui Method7_18(AutoRecovered).xlsx
+++ b/Outputs/Gas Transfer Velocity/Riveros-Iregui Method7_18(AutoRecovered).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20350"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20351"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nehemiah\Desktop\Ecuador\Outputs\Gas Transfer Velocity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9794ACA-C86B-4490-95AB-5124B075A8BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E3EAEF-CF4F-4DA5-829B-57FBA55AC63F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{272B3175-AD7C-4DD9-B3AF-E0B1A285AB3A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="3" xr2:uid="{272B3175-AD7C-4DD9-B3AF-E0B1A285AB3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Transfer Velocity" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="Henry's Constant" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="87">
   <si>
     <t>Syn</t>
   </si>
@@ -339,6 +338,21 @@
   </si>
   <si>
     <t>K600 EOS FD</t>
+  </si>
+  <si>
+    <t>7/18/2019 Degrees Celsius</t>
+  </si>
+  <si>
+    <t>7/25/2019 Degrees Celsius</t>
+  </si>
+  <si>
+    <t>July 31 Degrees Celsius</t>
+  </si>
+  <si>
+    <t>Aug 6 Degrees Celsius</t>
+  </si>
+  <si>
+    <t>Aug 12 Degrees Celsius</t>
   </si>
 </sst>
 </file>
@@ -380,11 +394,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -701,7 +716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194574C9-BD0E-4B22-802C-1B909ADCF057}">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="O2" sqref="O2:O37"/>
     </sheetView>
   </sheetViews>
@@ -787,7 +802,7 @@
         <v>182694878.63665584</v>
       </c>
       <c r="H2">
-        <f>E2*3.802464</f>
+        <f t="shared" ref="H2:H37" si="0">E2*3.802464</f>
         <v>189892.01018879999</v>
       </c>
       <c r="I2" s="1">
@@ -825,7 +840,7 @@
         <v>15777962.64156355</v>
       </c>
       <c r="H3">
-        <f>E3*3.802464</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I3" s="1">
@@ -842,11 +857,11 @@
         <v>0.41688500000000001</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N37" si="0">F3/J3/L3</f>
+        <f t="shared" ref="N3:N37" si="1">F3/J3/L3</f>
         <v>2.2313783423522519E-2</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O36" si="1">E3/J3/L3</f>
+        <f t="shared" ref="O3:O36" si="2">E3/J3/L3</f>
         <v>0</v>
       </c>
     </row>
@@ -867,7 +882,7 @@
         <v>33044943.259624317</v>
       </c>
       <c r="H4">
-        <f>E4*3.802464</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4" s="1">
@@ -884,11 +899,11 @@
         <v>6.6350000000000006E-2</v>
       </c>
       <c r="N4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.115660568794475E-2</v>
       </c>
       <c r="O4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -903,7 +918,7 @@
         <v>8294572.4537556367</v>
       </c>
       <c r="H5">
-        <f>E5*3.802464</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
@@ -920,11 +935,11 @@
         <v>0.79300000000000004</v>
       </c>
       <c r="N5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.39865886273858E-3</v>
       </c>
       <c r="O5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -949,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <f>E6*3.802464</f>
+        <f t="shared" si="0"/>
         <v>118271.840256</v>
       </c>
       <c r="I6" s="1">
@@ -966,11 +981,11 @@
         <v>0.37680000000000002</v>
       </c>
       <c r="N6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0302849892599612E-5</v>
       </c>
     </row>
@@ -982,7 +997,7 @@
         <v>61205443.095151745</v>
       </c>
       <c r="H7">
-        <f>E7*3.802464</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I7" s="1">
@@ -999,11 +1014,11 @@
         <v>0.14329</v>
       </c>
       <c r="N7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.770741887082001E-2</v>
       </c>
       <c r="O7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1021,7 +1036,7 @@
         <v>85934841.012453616</v>
       </c>
       <c r="H8">
-        <f>E8*3.802464</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I8" s="1">
@@ -1038,11 +1053,11 @@
         <v>0.229625</v>
       </c>
       <c r="N8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.0755270410010394E-2</v>
       </c>
       <c r="O8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1061,7 +1076,7 @@
         <v>22674384.335265025</v>
       </c>
       <c r="H9">
-        <f>E9*3.802464</f>
+        <f t="shared" si="0"/>
         <v>203690.39155200002</v>
       </c>
       <c r="I9" s="1">
@@ -1078,11 +1093,11 @@
         <v>1.35375</v>
       </c>
       <c r="N9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2824492002910821E-2</v>
       </c>
       <c r="O9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0297730578001915E-5</v>
       </c>
     </row>
@@ -1100,7 +1115,7 @@
         <v>81994464.670010224</v>
       </c>
       <c r="H10">
-        <f>E10*3.802464</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I10" s="1">
@@ -1117,11 +1132,11 @@
         <v>0.10696</v>
       </c>
       <c r="N10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.9686169133238839E-2</v>
       </c>
       <c r="O10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1133,7 +1148,7 @@
         <v>39923195.361804001</v>
       </c>
       <c r="H11">
-        <f>E11*3.802464</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I11" s="1">
@@ -1150,11 +1165,11 @@
         <v>0.43935000000000002</v>
       </c>
       <c r="N11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.3869150839593562E-2</v>
       </c>
       <c r="O11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1179,7 +1194,7 @@
         <v>6855089.998987224</v>
       </c>
       <c r="H12">
-        <f>E12*3.802464</f>
+        <f t="shared" si="0"/>
         <v>305535.58732799999</v>
       </c>
       <c r="I12" s="1">
@@ -1196,11 +1211,11 @@
         <v>0.31984000000000001</v>
       </c>
       <c r="N12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.4738045833745367E-3</v>
       </c>
       <c r="O12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.243974126326868E-5</v>
       </c>
     </row>
@@ -1212,7 +1227,7 @@
         <v>5836013.6955364095</v>
       </c>
       <c r="H13">
-        <f>E13*3.802464</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I13" s="1">
@@ -1229,11 +1244,11 @@
         <v>0.75138000000000005</v>
       </c>
       <c r="N13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.9125579996813148E-3</v>
       </c>
       <c r="O13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1251,7 +1266,7 @@
         <v>4383924.1502730763</v>
       </c>
       <c r="H14">
-        <f>E14*3.802464</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I14" s="1">
@@ -1268,11 +1283,11 @@
         <v>0.50012999999999996</v>
       </c>
       <c r="N14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.3818776484524121E-3</v>
       </c>
       <c r="O14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1291,7 +1306,7 @@
         <v>17472810.832395546</v>
       </c>
       <c r="H15">
-        <f>E15*3.802464</f>
+        <f t="shared" si="0"/>
         <v>50101.265663999999</v>
       </c>
       <c r="I15" s="1">
@@ -1308,11 +1323,11 @@
         <v>0.50192999999999999</v>
       </c>
       <c r="N15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.2668116826676843E-3</v>
       </c>
       <c r="O15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.9879718782538546E-6</v>
       </c>
     </row>
@@ -1330,7 +1345,7 @@
         <v>12473159.547594002</v>
       </c>
       <c r="H16">
-        <f>E16*3.802464</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I16" s="1">
@@ -1347,11 +1362,11 @@
         <v>1.2304600000000001</v>
       </c>
       <c r="N16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.1404822164223324E-3</v>
       </c>
       <c r="O16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1363,7 +1378,7 @@
         <v>30356967.60506852</v>
       </c>
       <c r="H17">
-        <f>E17*3.802464</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I17" s="1">
@@ -1380,11 +1395,11 @@
         <v>0.28889999999999999</v>
       </c>
       <c r="N17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.8617578603954225E-2</v>
       </c>
       <c r="O17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1402,7 +1417,7 @@
         <v>60448622.460810944</v>
       </c>
       <c r="H18">
-        <f>E18*3.802464</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I18" s="1">
@@ -1419,11 +1434,11 @@
         <v>0.54406500000000002</v>
       </c>
       <c r="N18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.10260121990759143</v>
       </c>
       <c r="O18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1435,7 +1450,7 @@
         <v>40836878.101621792</v>
       </c>
       <c r="H19">
-        <f>E19*3.802464</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I19" s="1">
@@ -1452,11 +1467,11 @@
         <v>0.32213999999999998</v>
       </c>
       <c r="N19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7328407744776727E-2</v>
       </c>
       <c r="O19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1474,7 +1489,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H20">
-        <f>E20*3.802464</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I20" s="1">
@@ -1491,11 +1506,11 @@
         <v>0.30145499999999997</v>
       </c>
       <c r="N20" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1514,7 +1529,7 @@
         <v>197778443.26183647</v>
       </c>
       <c r="H21">
-        <f>E21*3.802464</f>
+        <f t="shared" si="0"/>
         <v>248863.66387199998</v>
       </c>
       <c r="I21" s="1">
@@ -1531,11 +1546,11 @@
         <v>0.19428000000000001</v>
       </c>
       <c r="N21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5715728547608107E-2</v>
       </c>
       <c r="O21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1818896758577661E-5</v>
       </c>
     </row>
@@ -1560,7 +1575,7 @@
         <v>177669317.95359558</v>
       </c>
       <c r="H22">
-        <f>E22*3.802464</f>
+        <f t="shared" si="0"/>
         <v>1603240.501248</v>
       </c>
       <c r="I22" s="1">
@@ -1577,11 +1592,11 @@
         <v>0.20275499999999999</v>
       </c>
       <c r="N22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.472537020637371E-2</v>
       </c>
       <c r="O22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.8676463730088772E-5</v>
       </c>
     </row>
@@ -1593,7 +1608,7 @@
         <v>61906501.742182419</v>
       </c>
       <c r="H23">
-        <f>E23*3.802464</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I23" s="1">
@@ -1610,11 +1625,11 @@
         <v>0.11892</v>
       </c>
       <c r="N23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.5550678770303134E-3</v>
       </c>
       <c r="O23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1632,7 +1647,7 @@
         <v>818002513.41831088</v>
       </c>
       <c r="H24">
-        <f>E24*3.802464</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I24" s="1">
@@ -1649,11 +1664,11 @@
         <v>0.62314000000000003</v>
       </c>
       <c r="N24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.0177837948227382E-2</v>
       </c>
       <c r="O24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1672,7 +1687,7 @@
         <v>65464456.578606158</v>
       </c>
       <c r="H25">
-        <f>E25*3.802464</f>
+        <f t="shared" si="0"/>
         <v>1530141.933312</v>
       </c>
       <c r="I25" s="1">
@@ -1689,11 +1704,11 @@
         <v>0.13456000000000001</v>
       </c>
       <c r="N25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.2438356962306787E-3</v>
       </c>
       <c r="O25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.8380665878312737E-5</v>
       </c>
     </row>
@@ -1711,7 +1726,7 @@
         <v>139921069.71688688</v>
       </c>
       <c r="H26">
-        <f>E26*3.802464</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I26" s="1">
@@ -1728,11 +1743,11 @@
         <v>0.18540000000000001</v>
       </c>
       <c r="N26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2638520513369549E-2</v>
       </c>
       <c r="O26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1744,7 +1759,7 @@
         <v>118477574.60241824</v>
       </c>
       <c r="H27">
-        <f>E27*3.802464</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I27" s="1">
@@ -1761,11 +1776,11 @@
         <v>0.66724000000000006</v>
       </c>
       <c r="N27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3064307811629776E-2</v>
       </c>
       <c r="O27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1783,7 +1798,7 @@
         <v>6765715.227235863</v>
       </c>
       <c r="H28">
-        <f>E28*3.802464</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I28" s="1">
@@ -1800,11 +1815,11 @@
         <v>0.19420000000000001</v>
       </c>
       <c r="N28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.9216967022892094E-4</v>
       </c>
       <c r="O28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1816,7 +1831,7 @@
         <v>49812665.457784966</v>
       </c>
       <c r="H29">
-        <f>E29*3.802464</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I29" s="1">
@@ -1833,11 +1848,11 @@
         <v>1.62416</v>
       </c>
       <c r="N29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.8805226874283043E-3</v>
       </c>
       <c r="O29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1855,7 +1870,7 @@
         <v>397071.70196293632</v>
       </c>
       <c r="H30">
-        <f>E30*3.802464</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I30" s="1">
@@ -1872,11 +1887,11 @@
         <v>0.31859999999999999</v>
       </c>
       <c r="N30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.4768076174594725E-5</v>
       </c>
       <c r="O30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1895,7 +1910,7 @@
         <v>38459672.10841912</v>
       </c>
       <c r="H31">
-        <f>E31*3.802464</f>
+        <f t="shared" si="0"/>
         <v>392596.80307199998</v>
       </c>
       <c r="I31" s="1">
@@ -1912,11 +1927,11 @@
         <v>0.78849000000000002</v>
       </c>
       <c r="N31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.7682609557519119E-3</v>
       </c>
       <c r="O31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.431613206523042E-6</v>
       </c>
     </row>
@@ -1934,7 +1949,7 @@
         <v>17175953.385157172</v>
       </c>
       <c r="H32">
-        <f>E32*3.802464</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I32" s="1">
@@ -1951,11 +1966,11 @@
         <v>0.8538</v>
       </c>
       <c r="N32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3630565244009043E-3</v>
       </c>
       <c r="O32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1967,7 +1982,7 @@
         <v>3021353.8320923988</v>
       </c>
       <c r="H33">
-        <f>E33*3.802464</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I33" s="1">
@@ -1984,11 +1999,11 @@
         <v>0.2772</v>
       </c>
       <c r="N33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.4668630514768482E-4</v>
       </c>
       <c r="O33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2006,7 +2021,7 @@
         <v>13299476.376384353</v>
       </c>
       <c r="H34">
-        <f>E34*3.802464</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I34" s="1">
@@ -2023,11 +2038,11 @@
         <v>0.50009999999999999</v>
       </c>
       <c r="N34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.036271877870697E-3</v>
       </c>
       <c r="O34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2039,7 +2054,7 @@
         <v>12286258.91999514</v>
       </c>
       <c r="H35">
-        <f>E35*3.802464</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I35" s="1">
@@ -2056,11 +2071,11 @@
         <v>0.16008</v>
       </c>
       <c r="N35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.2343618401651592E-4</v>
       </c>
       <c r="O35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2078,7 +2093,7 @@
         <v>23029827.908131823</v>
       </c>
       <c r="H36">
-        <f>E36*3.802464</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I36" s="1">
@@ -2092,11 +2107,11 @@
         <v>19379000</v>
       </c>
       <c r="N36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9762817989554108E-3</v>
       </c>
       <c r="O36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2121,7 +2136,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H37">
-        <f>E37*3.802464</f>
+        <f t="shared" si="0"/>
         <v>1100585.18016</v>
       </c>
       <c r="I37" s="1">
@@ -2135,7 +2150,7 @@
         <v>19379000</v>
       </c>
       <c r="N37" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O37">
@@ -3891,10 +3906,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A7CE79-E6E4-40E0-9521-46A1416F609D}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4002,6 +4017,40 @@
         <v>692215060.93821418</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7.2208209999999999</v>
+      </c>
+      <c r="B8">
+        <v>6.5843299999999996</v>
+      </c>
+      <c r="C8">
+        <v>5.209219</v>
+      </c>
+      <c r="D8">
+        <v>5.8376570000000001</v>
+      </c>
+      <c r="E8">
+        <v>6.7077080000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
